--- a/StructureDefinition-profile-MedicinalProductDefinition-for-MedicinalProduct.xlsx
+++ b/StructureDefinition-profile-MedicinalProductDefinition-for-MedicinalProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4727" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.212442-06:00</t>
+    <t>2026-02-17T14:42:26.8534429-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,7 +450,7 @@
     <t>A business identifier relating to a specific version of the product, this is commonly used to support revisions to an existing product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.version` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.version` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -473,7 +473,7 @@
     <t>The status within the lifecycle of this product record. A high-level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization status.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.status` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.status` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:statusDate</t>
@@ -492,7 +492,7 @@
     <t>The date at which the given status became applicable.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.statusDate` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.statusDate` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:description</t>
@@ -511,7 +511,7 @@
     <t>General description of this product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.description` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.description` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:route</t>
@@ -530,7 +530,7 @@
     <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource. MedicinalProductDefinition.route is the same concept as AdministrableProductDefinition.routeOfAdministration.code, and they cannot be used together.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.route` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.route` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:indication</t>
@@ -549,7 +549,7 @@
     <t>Description of indication(s) for this product, used when structured indications are not required. In cases where structured indications are required, they are captured using the ClinicalUseDefinition resource. An indication is a medical situation for which using the product is appropriate.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.indication` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.indication` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:pediatricUseIndicator</t>
@@ -568,7 +568,7 @@
     <t>If authorised for use in children, or infants, neonates etc.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.pediatricUseIndicator` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.pediatricUseIndicator` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:classification</t>
@@ -587,7 +587,7 @@
     <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.classification` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.classification` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:ingredient</t>
@@ -606,7 +606,7 @@
     <t>The ingredients of this medicinal product - when not detailed in other resources. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource, or indirectly via incoming AdministrableProductDefinition, PackagedProductDefinition or ManufacturedItemDefinition references. In cases where those levels of detail are not used, the ingredients may be specified directly here as codes.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.ingredient` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.ingredient` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:impurity</t>
@@ -625,7 +625,7 @@
     <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product. This includes process-related impurities and contaminants, product-related impurities including degradation products.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.impurity` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.impurity` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:code</t>
@@ -644,7 +644,7 @@
     <t>A code that this product is known by, usually within some formal terminology, perhaps assigned by a third party (i.e. not the manufacturer or regulator). Products (types of medications) tend to be known by identifiers during development and within regulatory process. However when they are prescribed they tend to be identified by codes. The same product may be have multiple codes, applied to it by multiple organizations.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.code` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.code` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:operation</t>
@@ -663,7 +663,7 @@
     <t>A manufacturing or administrative process or step associated with (or performed on) the medicinal product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.operation` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.operation` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:characteristic</t>
@@ -682,7 +682,7 @@
     <t>Allows the key product features to be recorded, such as "sugar free", "modified release", "parallel import".</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.characteristic` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.characteristic` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.extension:comprisedOf</t>
@@ -702,7 +702,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.comprisedOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.comprisedOf` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.comprisedOf` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.modifierExtension</t>
@@ -812,7 +812,7 @@
     <t>Cross-version extension for MedicinalProductDefinition.domain from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.domain` is mapped to FHIR R4 element `MedicinalProduct.domain`.</t>
+    <t>Element `MedicinalProductDefinition.domain` has is mapped to FHIR R4 element `MedicinalProduct.domain`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.domain.system</t>
@@ -979,7 +979,7 @@
     <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorization studies.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.specialMeasures` is mapped to FHIR R4 element `MedicinalProduct.specialMeasures`.</t>
+    <t>Element `MedicinalProductDefinition.specialMeasures` has is mapped to FHIR R4 element `MedicinalProduct.specialMeasures`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.specialMeasures.value</t>
@@ -1076,7 +1076,7 @@
     <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.packagedMedicinalProduct` is mapped to FHIR R4 element `MedicinalProduct.packagedMedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.packagedMedicinalProduct` has is mapped to FHIR R4 element `MedicinalProduct.packagedMedicinalProduct`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.packagedMedicinalProduct.reference</t>
@@ -1191,7 +1191,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.attachedDocument` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.attachedDocument` is mapped to FHIR R4 element `MedicinalProduct.attachedDocument`.</t>
+Element `MedicinalProductDefinition.attachedDocument` has is mapped to FHIR R4 element `MedicinalProduct.attachedDocument`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.attachedDocument.reference</t>
@@ -1231,7 +1231,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.masterFile` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.masterFile` is mapped to FHIR R4 element `MedicinalProduct.masterFile`.</t>
+Element `MedicinalProductDefinition.masterFile` has is mapped to FHIR R4 element `MedicinalProduct.masterFile`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.masterFile.reference</t>
@@ -1278,7 +1278,7 @@
     <t>Cross-version extension for MedicinalProductDefinition.contact from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact` is mapped to FHIR R4 element `MedicinalProduct.contact`.</t>
+    <t>Element `MedicinalProductDefinition.contact` has is mapped to FHIR R4 element `MedicinalProduct.contact`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.contact.reference</t>
@@ -1325,23 +1325,20 @@
     <t>MedicinalProduct.name.extension</t>
   </si>
   <si>
-    <t>MedicinalProduct.name.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name.type|0.0.1-snapshot-3}
+    <t>MedicinalProduct.name.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicinalProductDefinition.name.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Type of product name, such as rINN, BAN, Proprietary, Non-Proprietary.</t>
-  </si>
-  <si>
-    <t>Element `MedicinalProductDefinition.name.type` is will have a context of MedicinalProduct.name based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Cross-version extension for MedicinalProductDefinition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicinalProductDefinition.name` has is mapped to FHIR R4 element `MedicinalProduct.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.name.modifierExtension</t>
@@ -1412,43 +1409,6 @@
     <t>Idenifying type for this part of the name (e.g. strength part).</t>
   </si>
   <si>
-    <t>MedicinalProduct.name.namePart.type.id</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.extension:type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name.part.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicinalProductDefinition.name.part.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifying type for this part of the name (e.g. strength part).</t>
-  </si>
-  <si>
-    <t>Element `MedicinalProductDefinition.name.part.type` is mapped to FHIR R4 element `MedicinalProduct.name.namePart.type`.</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.system</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.version</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.code</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.display</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.namePart.type.userSelected</t>
-  </si>
-  <si>
     <t>MedicinalProduct.name.countryLanguage</t>
   </si>
   <si>
@@ -1492,70 +1452,6 @@
   </si>
   <si>
     <t>Language code for this name.</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.countryLanguage.language.id</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.countryLanguage.language.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.countryLanguage.language.extension:language</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name.usage.language|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicinalProductDefinition.name.usage.language from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicinalProductDefinition.name.usage.language` is mapped to FHIR R4 element `MedicinalProduct.name.countryLanguage.language`.</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.countryLanguage.language.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.name.countryLanguage.language.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>MedicinalProduct.crossReference</t>
@@ -1589,7 +1485,7 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product, or a virtual product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference` is mapped to FHIR R4 element `MedicinalProduct.crossReference`.</t>
+    <t>Element `MedicinalProductDefinition.crossReference` has is mapped to FHIR R4 element `MedicinalProduct.crossReference`, but has no comparisons.</t>
   </si>
   <si>
     <t>MedicinalProduct.crossReference.use</t>
@@ -2197,7 +2093,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK143"/>
+  <dimension ref="A1:AK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10849,7 +10745,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>
@@ -10952,10 +10848,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -10973,10 +10869,10 @@
         <v>421</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11046,14 +10942,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11075,10 +10971,10 @@
         <v>128</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>224</v>
@@ -11133,7 +11029,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11153,10 +11049,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11182,10 +11078,10 @@
         <v>241</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11236,7 +11132,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -11256,10 +11152,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11285,10 +11181,10 @@
         <v>413</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11339,7 +11235,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11359,10 +11255,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11462,10 +11358,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11491,10 +11387,10 @@
         <v>128</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>224</v>
@@ -11567,14 +11463,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11596,10 +11492,10 @@
         <v>128</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>224</v>
@@ -11654,7 +11550,7 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
@@ -11674,10 +11570,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11703,10 +11599,10 @@
         <v>241</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11757,7 +11653,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -11777,10 +11673,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11806,10 +11702,10 @@
         <v>237</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11860,7 +11756,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -11880,10 +11776,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11894,7 +11790,7 @@
         <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -11903,16 +11799,16 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>242</v>
+        <v>446</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>243</v>
+        <v>447</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11963,30 +11859,30 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>244</v>
+        <v>445</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11994,10 +11890,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -12009,13 +11905,13 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12054,55 +11950,53 @@
         <v>74</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12114,16 +12008,16 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>449</v>
+        <v>128</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>452</v>
+        <v>224</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12188,50 +12082,50 @@
         <v>134</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>74</v>
@@ -12280,30 +12174,30 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>259</v>
+        <v>427</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>260</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12311,7 +12205,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>83</v>
@@ -12326,17 +12220,15 @@
         <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>74</v>
@@ -12385,10 +12277,10 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>265</v>
+        <v>451</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>83</v>
@@ -12400,15 +12292,15 @@
         <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12431,18 +12323,16 @@
         <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>74</v>
       </c>
@@ -12490,7 +12380,7 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
@@ -12505,15 +12395,15 @@
         <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12521,7 +12411,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>83</v>
@@ -12536,18 +12426,16 @@
         <v>84</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>274</v>
+        <v>458</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>275</v>
+        <v>459</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>74</v>
       </c>
@@ -12595,10 +12483,10 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>277</v>
+        <v>457</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>83</v>
@@ -12610,15 +12498,15 @@
         <v>95</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12629,7 +12517,7 @@
         <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>74</v>
@@ -12641,20 +12529,16 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>74</v>
       </c>
@@ -12702,13 +12586,13 @@
         <v>74</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>74</v>
@@ -12717,15 +12601,15 @@
         <v>95</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12736,7 +12620,7 @@
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -12745,16 +12629,16 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>413</v>
+        <v>241</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>459</v>
+        <v>242</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>460</v>
+        <v>243</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12805,30 +12689,30 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12839,7 +12723,7 @@
         <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
@@ -12851,13 +12735,13 @@
         <v>74</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12896,46 +12780,48 @@
         <v>74</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D103" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -12954,16 +12840,16 @@
         <v>74</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>128</v>
+        <v>467</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13028,26 +12914,26 @@
         <v>134</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>74</v>
@@ -13059,19 +12945,19 @@
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>224</v>
+        <v>474</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>225</v>
+        <v>475</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>74</v>
@@ -13096,13 +12982,13 @@
         <v>74</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>74</v>
+        <v>476</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>74</v>
+        <v>477</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>74</v>
+        <v>478</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>74</v>
@@ -13120,30 +13006,30 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>126</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13151,7 +13037,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>83</v>
@@ -13169,13 +13055,17 @@
         <v>233</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>74</v>
       </c>
@@ -13199,13 +13089,13 @@
         <v>74</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>74</v>
@@ -13223,10 +13113,10 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>83</v>
@@ -13238,15 +13128,15 @@
         <v>95</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>74</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13269,16 +13159,20 @@
         <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>74</v>
       </c>
@@ -13290,7 +13184,7 @@
         <v>74</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>74</v>
+        <v>494</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>74</v>
@@ -13326,7 +13220,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13341,15 +13235,15 @@
         <v>95</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13357,7 +13251,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>83</v>
@@ -13372,15 +13266,17 @@
         <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>74</v>
@@ -13393,7 +13289,7 @@
         <v>74</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>74</v>
+        <v>501</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>74</v>
@@ -13429,10 +13325,10 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>83</v>
@@ -13444,15 +13340,15 @@
         <v>95</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>74</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13472,16 +13368,16 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>241</v>
+        <v>505</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>242</v>
+        <v>506</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>243</v>
+        <v>507</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13532,7 +13428,7 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -13544,18 +13440,18 @@
         <v>74</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>245</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13563,10 +13459,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>74</v>
@@ -13575,18 +13471,20 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>128</v>
+        <v>511</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>129</v>
+        <v>512</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -13623,55 +13521,53 @@
         <v>74</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>248</v>
+        <v>515</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>74</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>74</v>
@@ -13680,20 +13576,18 @@
         <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>74</v>
@@ -13742,7 +13636,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>248</v>
+        <v>517</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -13754,7 +13648,7 @@
         <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>74</v>
@@ -13762,10 +13656,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13776,7 +13670,7 @@
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>74</v>
@@ -13785,23 +13679,19 @@
         <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>74</v>
       </c>
@@ -13849,41 +13739,41 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>485</v>
+        <v>244</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>486</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>74</v>
@@ -13892,23 +13782,21 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>74</v>
       </c>
@@ -13956,34 +13844,34 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>492</v>
+        <v>248</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>493</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -13996,22 +13884,26 @@
         <v>74</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>74</v>
       </c>
@@ -14059,7 +13951,7 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
@@ -14071,18 +13963,18 @@
         <v>74</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14102,16 +13994,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>242</v>
+        <v>524</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>243</v>
+        <v>525</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14162,7 +14054,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>244</v>
+        <v>523</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14174,18 +14066,18 @@
         <v>74</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14196,7 +14088,7 @@
         <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>74</v>
@@ -14205,16 +14097,16 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>129</v>
+        <v>527</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>130</v>
+        <v>528</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14253,31 +14145,31 @@
         <v>74</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>248</v>
+        <v>526</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -14285,14 +14177,12 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
         <v>74</v>
       </c>
@@ -14301,7 +14191,7 @@
         <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>74</v>
@@ -14310,20 +14200,18 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>74</v>
@@ -14372,19 +14260,19 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>248</v>
+        <v>529</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>74</v>
@@ -14392,10 +14280,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14412,26 +14300,22 @@
         <v>74</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>74</v>
       </c>
@@ -14455,13 +14339,13 @@
         <v>74</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>510</v>
+        <v>74</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>511</v>
+        <v>74</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>74</v>
@@ -14479,7 +14363,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -14494,15 +14378,15 @@
         <v>95</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>514</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14513,7 +14397,7 @@
         <v>75</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>74</v>
@@ -14525,20 +14409,16 @@
         <v>84</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>233</v>
+        <v>511</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>74</v>
       </c>
@@ -14562,13 +14442,13 @@
         <v>74</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>520</v>
+        <v>74</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>521</v>
+        <v>74</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>74</v>
@@ -14586,13 +14466,13 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>74</v>
@@ -14601,15 +14481,15 @@
         <v>95</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>514</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14632,20 +14512,16 @@
         <v>84</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>97</v>
+        <v>511</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>74</v>
       </c>
@@ -14657,7 +14533,7 @@
         <v>74</v>
       </c>
       <c r="T119" t="s" s="2">
-        <v>528</v>
+        <v>74</v>
       </c>
       <c r="U119" t="s" s="2">
         <v>74</v>
@@ -14693,7 +14569,7 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
@@ -14708,15 +14584,15 @@
         <v>95</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>530</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14727,7 +14603,7 @@
         <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>74</v>
@@ -14739,17 +14615,15 @@
         <v>84</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>74</v>
@@ -14762,7 +14636,7 @@
         <v>74</v>
       </c>
       <c r="T120" t="s" s="2">
-        <v>535</v>
+        <v>74</v>
       </c>
       <c r="U120" t="s" s="2">
         <v>74</v>
@@ -14798,13 +14672,13 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>74</v>
@@ -14813,15 +14687,15 @@
         <v>95</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>537</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14841,16 +14715,16 @@
         <v>74</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>539</v>
+        <v>241</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>540</v>
+        <v>242</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>541</v>
+        <v>243</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -14901,7 +14775,7 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>542</v>
+        <v>244</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
@@ -14913,29 +14787,29 @@
         <v>74</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>543</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>74</v>
@@ -14944,19 +14818,19 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>545</v>
+        <v>128</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>546</v>
+        <v>436</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>547</v>
+        <v>437</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>548</v>
+        <v>224</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15006,34 +14880,34 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>549</v>
+        <v>248</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>550</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -15046,22 +14920,26 @@
         <v>74</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>74</v>
       </c>
@@ -15109,7 +14987,7 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>551</v>
+        <v>427</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
@@ -15121,18 +14999,18 @@
         <v>74</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15143,7 +15021,7 @@
         <v>75</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>74</v>
@@ -15152,16 +15030,16 @@
         <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>242</v>
+        <v>549</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>243</v>
+        <v>550</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15212,41 +15090,41 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>244</v>
+        <v>548</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>74</v>
@@ -15255,20 +15133,18 @@
         <v>74</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>74</v>
@@ -15317,66 +15193,62 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>248</v>
+        <v>551</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>74</v>
       </c>
@@ -15424,22 +15296,22 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>428</v>
+        <v>554</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127">
@@ -15470,13 +15342,13 @@
         <v>84</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>233</v>
+        <v>558</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15547,10 +15419,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15573,13 +15445,13 @@
         <v>84</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -15630,7 +15502,7 @@
         <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -15650,10 +15522,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15676,7 +15548,7 @@
         <v>84</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>565</v>
@@ -15733,7 +15605,7 @@
         <v>74</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>75</v>
@@ -15851,1351 +15723,6 @@
         <v>95</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK143" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MedicinalProductDefinition-for-MedicinalProduct.xlsx
+++ b/StructureDefinition-profile-MedicinalProductDefinition-for-MedicinalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8534429-06:00</t>
+    <t>2026-02-20T11:59:20.8837486-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicinalProduct|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicinalProduct</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,7 +440,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.version}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.status}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>statusDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.statusDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.statusDate}
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.description|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.description}
 </t>
   </si>
   <si>
@@ -520,7 +520,7 @@
     <t>route</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.route|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.route}
 </t>
   </si>
   <si>
@@ -539,7 +539,7 @@
     <t>indication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.indication|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.indication}
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>pediatricUseIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.pediatricUseIndicator|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.pediatricUseIndicator}
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.classification|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.classification}
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.ingredient|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.ingredient}
 </t>
   </si>
   <si>
@@ -615,7 +615,7 @@
     <t>impurity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.impurity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.impurity}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.code|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.code}
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation}
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic}
 </t>
   </si>
   <si>
@@ -691,7 +691,7 @@
     <t>comprisedOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -805,7 +805,7 @@
     <t>domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.domain|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.domain}
 </t>
   </si>
   <si>
@@ -969,7 +969,7 @@
     <t>specialMeasures</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.specialMeasures|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.specialMeasures}
 </t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
     <t>packagedMedicinalProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.packagedMedicinalProduct|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.packagedMedicinalProduct}
 </t>
   </si>
   <si>
@@ -1271,7 +1271,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact}
 </t>
   </si>
   <si>
@@ -1331,7 +1331,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name}
 </t>
   </si>
   <si>
@@ -1475,7 +1475,7 @@
     <t>crossReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference}
 </t>
   </si>
   <si>
@@ -2112,7 +2112,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-MedicinalProductDefinition-for-MedicinalProduct.xlsx
+++ b/StructureDefinition-profile-MedicinalProductDefinition-for-MedicinalProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8837486-06:00</t>
+    <t>2026-02-21T13:36:54.2877335-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicinalProduct</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicinalProduct|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,7 +440,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.version}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>statusDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.statusDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.statusDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.description|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -520,7 +520,7 @@
     <t>route</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.route}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.route|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -539,7 +539,7 @@
     <t>indication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.indication}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.indication|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>pediatricUseIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.pediatricUseIndicator}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.pediatricUseIndicator|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>classification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.classification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.classification|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.ingredient}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.ingredient|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -615,7 +615,7 @@
     <t>impurity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.impurity}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.impurity|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.code}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.operation|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.characteristic|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -683,26 +683,6 @@
   </si>
   <si>
     <t>Element `MedicinalProductDefinition.characteristic` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.extension:comprisedOf</t>
-  </si>
-  <si>
-    <t>comprisedOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicinalProductDefinition.comprisedOf from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/ManufacturedItemDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.comprisedOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.comprisedOf` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.modifierExtension</t>
@@ -805,14 +785,14 @@
     <t>domain</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.domain}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.domain|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for MedicinalProductDefinition.domain from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.domain` has is mapped to FHIR R4 element `MedicinalProduct.domain`, but has no comparisons.</t>
+    <t>Element `MedicinalProductDefinition.domain` is mapped to FHIR R4 element `MedicinalProduct.domain` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicinalProduct.domain.system</t>
@@ -969,7 +949,7 @@
     <t>specialMeasures</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.specialMeasures}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.specialMeasures|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -979,7 +959,7 @@
     <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorization studies.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.specialMeasures` has is mapped to FHIR R4 element `MedicinalProduct.specialMeasures`, but has no comparisons.</t>
+    <t>Element `MedicinalProductDefinition.specialMeasures` is mapped to FHIR R4 element `MedicinalProduct.specialMeasures` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicinalProduct.specialMeasures.value</t>
@@ -1066,7 +1046,7 @@
     <t>packagedMedicinalProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.packagedMedicinalProduct}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.packagedMedicinalProduct|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1076,7 +1056,7 @@
     <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.packagedMedicinalProduct` has is mapped to FHIR R4 element `MedicinalProduct.packagedMedicinalProduct`, but has no comparisons.</t>
+    <t>Element `MedicinalProductDefinition.packagedMedicinalProduct` is mapped to FHIR R4 element `MedicinalProduct.packagedMedicinalProduct` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicinalProduct.packagedMedicinalProduct.reference</t>
@@ -1172,40 +1152,6 @@
     <t>Supporting documentation, typically for regulatory submission.</t>
   </si>
   <si>
-    <t>MedicinalProduct.attachedDocument.id</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.attachedDocument.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.attachedDocument.extension:attachedDocument</t>
-  </si>
-  <si>
-    <t>attachedDocument</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicinalProductDefinition.attachedDocument from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.attachedDocument` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.attachedDocument` has is mapped to FHIR R4 element `MedicinalProduct.attachedDocument`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.attachedDocument.reference</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.attachedDocument.type</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.attachedDocument.identifier</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.attachedDocument.display</t>
-  </si>
-  <si>
     <t>MedicinalProduct.masterFile</t>
   </si>
   <si>
@@ -1213,37 +1159,6 @@
   </si>
   <si>
     <t>A master file for to the medicinal product (e.g. Pharmacovigilance System Master File).</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.id</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.extension</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.extension:masterFile</t>
-  </si>
-  <si>
-    <t>masterFile</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MedicinalProductDefinition.masterFile from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.masterFile` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.masterFile` has is mapped to FHIR R4 element `MedicinalProduct.masterFile`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.reference</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.type</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.identifier</t>
-  </si>
-  <si>
-    <t>MedicinalProduct.masterFile.display</t>
   </si>
   <si>
     <t>MedicinalProduct.contact</t>
@@ -1271,14 +1186,14 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for MedicinalProductDefinition.contact from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact` has is mapped to FHIR R4 element `MedicinalProduct.contact`, but has no comparisons.</t>
+    <t>Element `MedicinalProductDefinition.contact` is mapped to FHIR R4 element `MedicinalProduct.contact` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicinalProduct.contact.reference</t>
@@ -1325,20 +1240,23 @@
     <t>MedicinalProduct.name.extension</t>
   </si>
   <si>
-    <t>MedicinalProduct.name.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name}
+    <t>MedicinalProduct.name.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MedicinalProductDefinition.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MedicinalProductDefinition.name` has is mapped to FHIR R4 element `MedicinalProduct.name`, but has no comparisons.</t>
+    <t>Cross-version extension for MedicinalProductDefinition.name.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Type of product name, such as rINN, BAN, Proprietary, Non-Proprietary.</t>
+  </si>
+  <si>
+    <t>Element `MedicinalProductDefinition.name.type` has a context of MedicinalProduct.name based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>MedicinalProduct.name.modifierExtension</t>
@@ -1409,6 +1327,43 @@
     <t>Idenifying type for this part of the name (e.g. strength part).</t>
   </si>
   <si>
+    <t>MedicinalProduct.name.namePart.type.id</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.extension:type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name.part.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicinalProductDefinition.name.part.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifying type for this part of the name (e.g. strength part).</t>
+  </si>
+  <si>
+    <t>Element `MedicinalProductDefinition.name.part.type` is mapped to FHIR R4 element `MedicinalProduct.name.namePart.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.system</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.version</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.code</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.display</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.namePart.type.userSelected</t>
+  </si>
+  <si>
     <t>MedicinalProduct.name.countryLanguage</t>
   </si>
   <si>
@@ -1454,6 +1409,70 @@
     <t>Language code for this name.</t>
   </si>
   <si>
+    <t>MedicinalProduct.name.countryLanguage.language.id</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.countryLanguage.language.extension</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.countryLanguage.language.extension:language</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.name.usage.language|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MedicinalProductDefinition.name.usage.language from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MedicinalProductDefinition.name.usage.language` is mapped to FHIR R4 element `MedicinalProduct.name.countryLanguage.language` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.countryLanguage.language.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>MedicinalProduct.name.countryLanguage.language.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>MedicinalProduct.crossReference</t>
   </si>
   <si>
@@ -1475,7 +1494,7 @@
     <t>crossReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.crossReference|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1485,7 +1504,7 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product, or a virtual product.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.crossReference` has is mapped to FHIR R4 element `MedicinalProduct.crossReference`, but has no comparisons.</t>
+    <t>Element `MedicinalProductDefinition.crossReference` is mapped to FHIR R4 element `MedicinalProduct.crossReference` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>MedicinalProduct.crossReference.use</t>
@@ -2093,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK130"/>
+  <dimension ref="A1:AK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2112,7 +2131,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4481,13 +4500,11 @@
         <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4500,24 +4517,26 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4565,7 +4584,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4580,19 +4599,19 @@
         <v>134</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4605,26 +4624,22 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J24" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O24" t="s" s="2">
         <v>225</v>
       </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4672,7 +4687,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4684,29 +4699,29 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4718,13 +4733,13 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4775,13 +4790,13 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
@@ -4795,10 +4810,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4821,13 +4836,13 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4878,7 +4893,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4898,10 +4913,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4921,16 +4936,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4981,7 +4996,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4993,10 +5008,10 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
@@ -5015,7 +5030,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -5027,13 +5042,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5072,44 +5087,46 @@
         <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5118,7 +5135,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5130,15 +5147,17 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -5175,19 +5194,19 @@
         <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5207,14 +5226,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5232,21 +5249,23 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5294,30 +5313,30 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5340,20 +5359,18 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O31" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>262</v>
@@ -5455,10 +5472,10 @@
       <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5552,7 +5569,7 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>268</v>
@@ -5657,17 +5674,19 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5716,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5731,15 +5750,15 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5762,20 +5781,16 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5823,7 +5838,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5838,15 +5853,15 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5869,13 +5884,13 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5926,7 +5941,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5946,10 +5961,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5972,13 +5987,13 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6029,7 +6044,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6049,10 +6064,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6063,7 +6078,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -6075,13 +6090,13 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6132,13 +6147,13 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
@@ -6152,10 +6167,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6166,7 +6181,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6175,16 +6190,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6235,19 +6250,19 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6255,10 +6270,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6269,7 +6284,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6281,13 +6296,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6326,31 +6341,29 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6358,12 +6371,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6384,15 +6399,17 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6429,17 +6446,19 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6448,7 +6467,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>134</v>
@@ -6462,11 +6481,9 @@
         <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6475,7 +6492,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6487,17 +6504,15 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6519,7 +6534,7 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>74</v>
@@ -6546,19 +6561,19 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6566,10 +6581,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6589,16 +6604,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6622,7 +6637,7 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>74</v>
@@ -6649,7 +6664,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6661,7 +6676,7 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6669,10 +6684,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6683,7 +6698,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6695,13 +6710,13 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6752,13 +6767,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6772,10 +6787,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6798,13 +6813,13 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6855,7 +6870,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6875,10 +6890,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6901,13 +6916,13 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6958,7 +6973,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6978,10 +6993,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7004,13 +7019,13 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7061,7 +7076,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7081,10 +7096,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7095,7 +7110,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7104,16 +7119,16 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7164,30 +7179,30 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7198,7 +7213,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7210,13 +7225,13 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7255,44 +7270,46 @@
         <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7313,15 +7330,17 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7358,19 +7377,19 @@
         <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7393,11 +7412,9 @@
         <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7406,7 +7423,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7415,19 +7432,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7477,22 +7494,22 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -7523,7 +7540,7 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>341</v>
@@ -7558,13 +7575,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7582,7 +7599,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7591,7 +7608,7 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>95</v>
@@ -7602,10 +7619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7628,16 +7645,16 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7663,31 +7680,31 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7702,7 +7719,7 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>126</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54">
@@ -7733,7 +7750,7 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>355</v>
@@ -7807,15 +7824,15 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>359</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7826,7 +7843,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7838,7 +7855,7 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>361</v>
@@ -7846,9 +7863,7 @@
       <c r="M55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7897,13 +7912,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -7912,15 +7927,15 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7943,13 +7958,13 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8000,7 +8015,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8020,10 +8035,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8034,7 +8049,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8043,16 +8058,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8103,22 +8118,22 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
@@ -8137,7 +8152,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8149,13 +8164,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8194,34 +8209,34 @@
         <v>74</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59">
@@ -8229,11 +8244,9 @@
         <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8242,7 +8255,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8254,17 +8267,15 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -8301,19 +8312,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8333,12 +8344,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8356,19 +8369,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>241</v>
+        <v>374</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8418,22 +8431,22 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
@@ -8464,16 +8477,16 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8499,13 +8512,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8523,7 +8536,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8532,7 +8545,7 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>95</v>
@@ -8569,16 +8582,16 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8604,13 +8617,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8628,7 +8641,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8643,7 +8656,7 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>359</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
@@ -8674,16 +8687,16 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8733,7 +8746,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8748,7 +8761,7 @@
         <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>126</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64">
@@ -8767,7 +8780,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8779,15 +8792,17 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>366</v>
+        <v>235</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8836,13 +8851,13 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
@@ -8851,15 +8866,15 @@
         <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8870,7 +8885,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -8879,16 +8894,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>241</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8939,30 +8954,30 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>244</v>
+        <v>381</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8970,7 +8985,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -8982,16 +8997,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>128</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>129</v>
+        <v>387</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>130</v>
+        <v>388</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9030,22 +9045,22 @@
         <v>74</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -9054,7 +9069,7 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -9062,14 +9077,12 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9090,17 +9103,15 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9149,30 +9160,30 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9183,7 +9194,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9192,20 +9203,18 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9242,44 +9251,44 @@
         <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9297,19 +9306,19 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>97</v>
+        <v>393</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9335,13 +9344,13 @@
         <v>74</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>74</v>
@@ -9359,64 +9368,66 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9464,30 +9475,30 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>359</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9495,7 +9506,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>83</v>
@@ -9510,17 +9521,15 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9569,10 +9578,10 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>83</v>
@@ -9584,15 +9593,15 @@
         <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9615,13 +9624,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9672,7 +9681,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9692,10 +9701,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9718,13 +9727,13 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9775,7 +9784,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9790,19 +9799,19 @@
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9824,12 +9833,14 @@
         <v>128</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>129</v>
+        <v>410</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
@@ -9866,19 +9877,19 @@
         <v>74</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -9893,21 +9904,19 @@
         <v>134</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9920,24 +9929,26 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>401</v>
+        <v>128</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9985,7 +9996,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>248</v>
+        <v>401</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10000,15 +10011,15 @@
         <v>134</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10016,7 +10027,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>83</v>
@@ -10031,17 +10042,15 @@
         <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10090,30 +10099,30 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10121,7 +10130,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>83</v>
@@ -10136,17 +10145,15 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>74</v>
@@ -10171,13 +10178,13 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10195,10 +10202,10 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>83</v>
@@ -10210,15 +10217,15 @@
         <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10238,20 +10245,18 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>355</v>
+        <v>236</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10300,7 +10305,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10312,18 +10317,18 @@
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>359</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10331,10 +10336,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>74</v>
@@ -10343,20 +10348,18 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>361</v>
+        <v>129</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10393,53 +10396,55 @@
         <v>74</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>364</v>
+        <v>242</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10448,18 +10453,20 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10508,7 +10515,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>408</v>
+        <v>242</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10520,7 +10527,7 @@
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
@@ -10528,10 +10535,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10539,10 +10546,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
@@ -10554,16 +10561,20 @@
         <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10611,13 +10622,13 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>412</v>
+        <v>253</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
@@ -10626,15 +10637,15 @@
         <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10654,18 +10665,20 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
@@ -10714,7 +10727,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10726,18 +10739,18 @@
         <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10745,10 +10758,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>74</v>
@@ -10757,19 +10770,21 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
       </c>
@@ -10805,53 +10820,53 @@
         <v>74</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -10860,21 +10875,21 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>420</v>
+        <v>235</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>74</v>
       </c>
@@ -10922,65 +10937,65 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>426</v>
+        <v>276</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
@@ -11029,30 +11044,30 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>427</v>
+        <v>279</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>126</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11060,10 +11075,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
@@ -11075,13 +11090,13 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>241</v>
+        <v>386</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11132,13 +11147,13 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>74</v>
@@ -11152,10 +11167,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11166,7 +11181,7 @@
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>74</v>
@@ -11175,16 +11190,16 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>413</v>
+        <v>235</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>432</v>
+        <v>236</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>433</v>
+        <v>237</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11235,41 +11250,41 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>431</v>
+        <v>238</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -11281,15 +11296,17 @@
         <v>74</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>74</v>
@@ -11338,34 +11355,34 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11378,24 +11395,26 @@
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
       </c>
@@ -11443,7 +11462,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>248</v>
+        <v>401</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -11458,51 +11477,47 @@
         <v>134</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>245</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11550,30 +11565,30 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11581,7 +11596,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>83</v>
@@ -11596,13 +11611,13 @@
         <v>84</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11653,10 +11668,10 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>83</v>
@@ -11673,10 +11688,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11699,13 +11714,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11756,7 +11771,7 @@
         <v>74</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -11776,10 +11791,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11790,7 +11805,7 @@
         <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -11799,16 +11814,16 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>413</v>
+        <v>235</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>446</v>
+        <v>236</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11859,30 +11874,30 @@
         <v>74</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>445</v>
+        <v>238</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11890,10 +11905,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>74</v>
@@ -11905,13 +11920,13 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11950,53 +11965,55 @@
         <v>74</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="B95" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>74</v>
@@ -12008,16 +12025,16 @@
         <v>74</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>224</v>
+        <v>452</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12067,7 +12084,7 @@
         <v>74</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>75</v>
@@ -12082,19 +12099,19 @@
         <v>134</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12107,25 +12124,25 @@
         <v>74</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>224</v>
+        <v>456</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>74</v>
@@ -12174,7 +12191,7 @@
         <v>74</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>75</v>
@@ -12186,18 +12203,18 @@
         <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>126</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12205,7 +12222,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>83</v>
@@ -12220,16 +12237,20 @@
         <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>74</v>
       </c>
@@ -12277,10 +12298,10 @@
         <v>74</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>83</v>
@@ -12292,15 +12313,15 @@
         <v>95</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>74</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12311,7 +12332,7 @@
         <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>
@@ -12323,13 +12344,13 @@
         <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12380,13 +12401,13 @@
         <v>74</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>74</v>
@@ -12400,10 +12421,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12411,7 +12432,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>83</v>
@@ -12423,16 +12444,16 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>458</v>
+        <v>236</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>459</v>
+        <v>237</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12483,10 +12504,10 @@
         <v>74</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>457</v>
+        <v>238</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>83</v>
@@ -12495,18 +12516,18 @@
         <v>74</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12526,16 +12547,16 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>462</v>
+        <v>130</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12574,19 +12595,19 @@
         <v>74</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -12598,7 +12619,7 @@
         <v>74</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>74</v>
@@ -12606,12 +12627,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="D101" t="s" s="2">
         <v>74</v>
       </c>
@@ -12620,7 +12643,7 @@
         <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>74</v>
@@ -12632,15 +12655,17 @@
         <v>74</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>241</v>
+        <v>474</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>242</v>
+        <v>475</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>74</v>
@@ -12689,30 +12714,30 @@
         <v>74</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12723,28 +12748,32 @@
         <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>129</v>
+        <v>479</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>74</v>
       </c>
@@ -12768,58 +12797,56 @@
         <v>74</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>74</v>
+        <v>484</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>74</v>
+        <v>485</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>248</v>
+        <v>486</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>74</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>74</v>
       </c>
@@ -12828,7 +12855,7 @@
         <v>75</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>74</v>
@@ -12837,21 +12864,23 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>467</v>
+        <v>227</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>74</v>
       </c>
@@ -12875,13 +12904,13 @@
         <v>74</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>74</v>
+        <v>493</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>74</v>
+        <v>494</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>74</v>
@@ -12899,30 +12928,30 @@
         <v>74</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>248</v>
+        <v>495</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>74</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12939,25 +12968,25 @@
         <v>74</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>74</v>
@@ -12970,7 +12999,7 @@
         <v>74</v>
       </c>
       <c r="T104" t="s" s="2">
-        <v>74</v>
+        <v>501</v>
       </c>
       <c r="U104" t="s" s="2">
         <v>74</v>
@@ -12982,13 +13011,13 @@
         <v>74</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>478</v>
+        <v>74</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>74</v>
@@ -13006,7 +13035,7 @@
         <v>74</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -13021,15 +13050,15 @@
         <v>95</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13052,20 +13081,18 @@
         <v>84</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>74</v>
       </c>
@@ -13077,7 +13104,7 @@
         <v>74</v>
       </c>
       <c r="T105" t="s" s="2">
-        <v>74</v>
+        <v>508</v>
       </c>
       <c r="U105" t="s" s="2">
         <v>74</v>
@@ -13089,13 +13116,13 @@
         <v>74</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>487</v>
+        <v>74</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>74</v>
@@ -13113,7 +13140,7 @@
         <v>74</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -13128,15 +13155,15 @@
         <v>95</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13159,20 +13186,16 @@
         <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>97</v>
+        <v>512</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>74</v>
       </c>
@@ -13184,7 +13207,7 @@
         <v>74</v>
       </c>
       <c r="T106" t="s" s="2">
-        <v>494</v>
+        <v>74</v>
       </c>
       <c r="U106" t="s" s="2">
         <v>74</v>
@@ -13220,7 +13243,7 @@
         <v>74</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -13235,15 +13258,15 @@
         <v>95</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13266,16 +13289,16 @@
         <v>84</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>241</v>
+        <v>518</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13289,7 +13312,7 @@
         <v>74</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>501</v>
+        <v>74</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>74</v>
@@ -13325,7 +13348,7 @@
         <v>74</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -13340,15 +13363,15 @@
         <v>95</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13359,7 +13382,7 @@
         <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>74</v>
@@ -13371,13 +13394,13 @@
         <v>84</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>505</v>
+        <v>386</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13428,13 +13451,13 @@
         <v>74</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>74</v>
@@ -13443,15 +13466,15 @@
         <v>95</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>509</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13471,20 +13494,18 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>511</v>
+        <v>235</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>512</v>
+        <v>236</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>74</v>
@@ -13533,7 +13554,7 @@
         <v>74</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>515</v>
+        <v>238</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -13545,22 +13566,22 @@
         <v>74</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>516</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -13576,18 +13597,20 @@
         <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>74</v>
@@ -13636,7 +13659,7 @@
         <v>74</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>517</v>
+        <v>242</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -13648,50 +13671,54 @@
         <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>74</v>
       </c>
@@ -13739,41 +13766,41 @@
         <v>74</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>245</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>74</v>
@@ -13782,20 +13809,18 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>436</v>
+        <v>531</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>74</v>
@@ -13844,66 +13869,62 @@
         <v>74</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>248</v>
+        <v>530</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>425</v>
+        <v>534</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>74</v>
       </c>
@@ -13951,30 +13972,30 @@
         <v>74</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13997,13 +14018,13 @@
         <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>233</v>
+        <v>537</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14054,7 +14075,7 @@
         <v>74</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -14074,10 +14095,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14100,13 +14121,13 @@
         <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14157,7 +14178,7 @@
         <v>74</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
@@ -14177,10 +14198,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14191,7 +14212,7 @@
         <v>75</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>74</v>
@@ -14203,13 +14224,13 @@
         <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14260,13 +14281,13 @@
         <v>74</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>74</v>
@@ -14280,10 +14301,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14306,13 +14327,13 @@
         <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>233</v>
+        <v>518</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14363,7 +14384,7 @@
         <v>74</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
@@ -14383,10 +14404,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14409,13 +14430,13 @@
         <v>84</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>511</v>
+        <v>386</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14466,7 +14487,7 @@
         <v>74</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>75</v>
@@ -14486,10 +14507,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14509,16 +14530,16 @@
         <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>511</v>
+        <v>235</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>540</v>
+        <v>236</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>541</v>
+        <v>237</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14569,7 +14590,7 @@
         <v>74</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>539</v>
+        <v>238</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>75</v>
@@ -14581,22 +14602,22 @@
         <v>74</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -14612,18 +14633,20 @@
         <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>543</v>
+        <v>410</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>74</v>
@@ -14672,7 +14695,7 @@
         <v>74</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>75</v>
@@ -14684,50 +14707,54 @@
         <v>74</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>74</v>
       </c>
@@ -14775,34 +14802,34 @@
         <v>74</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>245</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -14818,20 +14845,18 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>436</v>
+        <v>556</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>74</v>
@@ -14880,7 +14905,7 @@
         <v>74</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>248</v>
+        <v>555</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>75</v>
@@ -14892,54 +14917,50 @@
         <v>74</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>425</v>
+        <v>559</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>74</v>
       </c>
@@ -14987,30 +15008,30 @@
         <v>74</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>427</v>
+        <v>558</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15021,7 +15042,7 @@
         <v>75</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>74</v>
@@ -15033,13 +15054,13 @@
         <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15090,13 +15111,13 @@
         <v>74</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>74</v>
@@ -15110,10 +15131,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15136,13 +15157,13 @@
         <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>233</v>
+        <v>565</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -15193,7 +15214,7 @@
         <v>74</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>75</v>
@@ -15213,10 +15234,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15239,13 +15260,13 @@
         <v>84</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -15296,7 +15317,7 @@
         <v>74</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>75</v>
@@ -15316,10 +15337,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15342,13 +15363,13 @@
         <v>84</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15399,7 +15420,7 @@
         <v>74</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>75</v>
@@ -15419,10 +15440,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15445,13 +15466,13 @@
         <v>84</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -15502,7 +15523,7 @@
         <v>74</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>75</v>
@@ -15517,212 +15538,6 @@
         <v>95</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK130" t="s" s="2">
         <v>74</v>
       </c>
     </row>
